--- a/Экономическая часть.xlsx
+++ b/Экономическая часть.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SkyGopnik\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F949BD5C-2DDA-4D95-9DB8-137B61206A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80C8728-9CD3-4423-940F-097EC0F83169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49028" yWindow="5285" windowWidth="26083" windowHeight="13829" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34669" yWindow="4728" windowWidth="26300" windowHeight="14169" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>Ти</t>
   </si>
@@ -122,6 +122,12 @@
     <t>То (общая трудоемкость)</t>
   </si>
   <si>
+    <t>% к итогу</t>
+  </si>
+  <si>
+    <t>% к основной зп</t>
+  </si>
+  <si>
     <t>Сч</t>
   </si>
   <si>
@@ -131,10 +137,16 @@
     <t>Здоп</t>
   </si>
   <si>
+    <t>Св</t>
+  </si>
+  <si>
     <t>ФОТ</t>
   </si>
   <si>
-    <t>Св</t>
+    <t>Апрог</t>
+  </si>
+  <si>
+    <t>Э</t>
   </si>
   <si>
     <t>Агод</t>
@@ -143,28 +155,31 @@
     <t>Адня</t>
   </si>
   <si>
+    <t>Нцех</t>
+  </si>
+  <si>
     <t>Ачас</t>
   </si>
   <si>
-    <t>Апрог</t>
-  </si>
-  <si>
-    <t>Э</t>
-  </si>
-  <si>
-    <t>Нцех</t>
+    <t>Сцех</t>
   </si>
   <si>
     <t>Нзав</t>
   </si>
   <si>
+    <t>Спр</t>
+  </si>
+  <si>
+    <t>Впр</t>
+  </si>
+  <si>
+    <t>Сп</t>
+  </si>
+  <si>
     <t>Себ цеховая</t>
   </si>
   <si>
     <t>Себ производств</t>
-  </si>
-  <si>
-    <t>Впр</t>
   </si>
   <si>
     <t>Себ полная</t>
@@ -281,12 +296,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -697,40 +713,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15" style="3" customWidth="1"/>
     <col min="10" max="10" width="19.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1">
@@ -746,48 +763,48 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>1.3</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>1.3</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>1.3</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>1.3</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>1.3</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <v>1.3</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
         <v>0.7</v>
       </c>
-      <c r="C4" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="D4" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="G4" s="6">
         <v>0.8</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -795,344 +812,475 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>0.8</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>0.8</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>0.8</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>0.8</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>0.8</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="7">
         <f t="shared" ref="B6:G6" si="0">$B$2/(B4*B5)*B3</f>
+        <v>11.375</v>
+      </c>
+      <c r="C6" s="7">
+        <f t="shared" si="0"/>
         <v>16.250000000000004</v>
       </c>
-      <c r="C6" s="6">
-        <f t="shared" si="0"/>
-        <v>28.437499999999996</v>
-      </c>
-      <c r="D6" s="6">
-        <f t="shared" si="0"/>
-        <v>7.5833333333333321</v>
-      </c>
-      <c r="E6" s="6">
-        <f t="shared" si="0"/>
-        <v>37.916666666666671</v>
-      </c>
-      <c r="F6" s="6">
-        <f t="shared" si="0"/>
-        <v>11.375</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="D6" s="7">
         <f t="shared" si="0"/>
         <v>14.218749999999998</v>
       </c>
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
+        <v>9.4791666666666679</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="0"/>
+        <v>18.958333333333336</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="0"/>
+        <v>14.218749999999998</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="10">
-        <v>80000</v>
+      <c r="B8" s="11">
+        <v>150472</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="J8" s="11" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="J8" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="10">
-        <v>120000</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="J9" s="13" t="s">
+      <c r="B9" s="11">
+        <v>80000</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="J9" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="10">
-        <v>100000</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="B10" s="11">
+        <v>170000</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="11">
         <v>140</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="11">
         <v>120</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="11">
         <v>247</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="10">
-        <v>7.1</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="B14" s="11">
+        <v>6.67</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="16">
         <f>B18/3600</f>
-        <v>8.3333333333333339</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+        <v>15.674166666666666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="16">
         <f>B8*1.5/4</f>
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+        <v>56427</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="16">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="I19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="16">
         <f>B6+C6+D6+E6+F6+G6+B17+B19</f>
-        <v>124.13458333333332</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+        <v>100.19416666666666</v>
+      </c>
+      <c r="G20" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="15">
+      <c r="H20" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="16">
         <f>B9/(22.8*8)</f>
-        <v>657.8947368421052</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="15">
+        <v>438.59649122807014</v>
+      </c>
+      <c r="F21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="3">
+        <f>B22/B36*I19</f>
+        <v>18.908486200575425</v>
+      </c>
+      <c r="H21" s="3">
+        <f>B22/B22*I19</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="16">
         <f>B21*B20</f>
-        <v>81667.48903508771</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="15">
+        <v>43944.809941520463</v>
+      </c>
+      <c r="F22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="3">
+        <f>B23/B36*I19</f>
+        <v>15.126788960460342</v>
+      </c>
+      <c r="H22" s="3">
+        <f>B23/B22*I19</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="16">
         <f>B22*0.8</f>
-        <v>65333.991228070168</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="15">
+        <v>35155.847953216369</v>
+      </c>
+      <c r="F23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="3">
+        <f>B25/B36*I19</f>
+        <v>10.2786530986328</v>
+      </c>
+      <c r="H23" s="3">
+        <f>B25/B22*I19</f>
+        <v>54.359999999999985</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="16">
         <f>B22+B23</f>
-        <v>147001.48026315786</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="15">
+        <v>79100.657894736825</v>
+      </c>
+      <c r="F24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="3">
+        <f>B29/B36*I19</f>
+        <v>0.92724307329744882</v>
+      </c>
+      <c r="H24" s="3">
+        <f>B29/B22*I19</f>
+        <v>4.9038461538461542</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="16">
         <f>B24*0.302</f>
-        <v>44394.447039473671</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="15">
+        <v>23888.398684210519</v>
+      </c>
+      <c r="F25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="3">
+        <f>B30/B36*I19</f>
+        <v>0.28755269474387085</v>
+      </c>
+      <c r="H25" s="3">
+        <f>B30/B22*I19</f>
+        <v>1.5207599999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="16">
         <f>B10/4</f>
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="15">
+        <v>42500</v>
+      </c>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="16">
         <f>B26/B13</f>
-        <v>101.21457489878543</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+        <v>172.06477732793522</v>
+      </c>
+      <c r="F27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="3">
+        <f>B31/B36*I19</f>
+        <v>26.471880680805594</v>
+      </c>
+      <c r="H27" s="3">
+        <f>B31/B22*I19</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="16">
+        <f>B27/8</f>
+        <v>21.508097165991902</v>
+      </c>
+      <c r="F28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="3">
+        <f>B33/B36*I19</f>
+        <v>72.000604708515468</v>
+      </c>
+      <c r="H28" s="3">
+        <f>B33/B22*I19</f>
+        <v>380.78460615384608</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="15">
-        <f>B27/8</f>
-        <v>12.651821862348179</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+      <c r="B29" s="16">
+        <f>B28*B20</f>
+        <v>2154.9858721322535</v>
+      </c>
+      <c r="F29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="3">
+        <f>B32/B36*I19</f>
+        <v>18.908486200575428</v>
+      </c>
+      <c r="H29" s="3">
+        <f>B32/B22*I19</f>
+        <v>100.00000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="15">
-        <f>B28*B20</f>
-        <v>1570.5286352901485</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="15">
+      <c r="B30" s="16">
         <f>B20*B14</f>
-        <v>881.35554166666657</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="15">
+        <v>668.29509166666662</v>
+      </c>
+      <c r="F30" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="3">
+        <f>B34/B36*I19</f>
+        <v>90.909090909090907</v>
+      </c>
+      <c r="H30" s="3">
+        <f>B34/B22*I19</f>
+        <v>480.78460615384608</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="16">
         <f>B22*B11/100</f>
-        <v>114334.48464912278</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="15">
+        <v>61522.733918128644</v>
+      </c>
+      <c r="F31" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" s="3">
+        <f>B35/B36*I19</f>
+        <v>9.0909090909090917</v>
+      </c>
+      <c r="H31" s="3">
+        <f>B35/B22*I19</f>
+        <v>48.078460615384614</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="16">
         <f>B22*100/100</f>
-        <v>81667.48903508771</v>
+        <v>43944.809941520471</v>
+      </c>
+      <c r="F32" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="3">
+        <f>B36/B36*I19</f>
+        <v>100</v>
+      </c>
+      <c r="H32" s="3">
+        <f>B36/B22*I19</f>
+        <v>528.86306676923084</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="15">
+      <c r="A33" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="16">
         <f>B22+B23+B25+B29+B30+B31</f>
-        <v>308182.2961287112</v>
+        <v>167335.0714608749</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="15">
+      <c r="A34" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="16">
         <f>B33+B32</f>
-        <v>389849.78516379889</v>
+        <v>211279.88140239537</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="15">
+      <c r="A35" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="16">
         <f>B34*B15/100</f>
-        <v>38984.978516379888</v>
+        <v>21127.98814023954</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="15">
+      <c r="A36" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="16">
         <f>B34+B35</f>
-        <v>428834.76368017879</v>
+        <v>232407.86954263493</v>
       </c>
     </row>
   </sheetData>
@@ -1148,7 +1296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -1161,7 +1309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/Экономическая часть.xlsx
+++ b/Экономическая часть.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SkyGopnik\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/artempetrunin/GitHub/terix-diplom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80C8728-9CD3-4423-940F-097EC0F83169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7A9FEB-C5E7-614E-911F-84AF65C601AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34669" yWindow="4728" windowWidth="26300" windowHeight="14169" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -296,42 +296,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -415,9 +414,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -455,7 +454,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -561,7 +560,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -713,572 +712,572 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" zoomScale="171" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15" style="3" customWidth="1"/>
-    <col min="10" max="10" width="19.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="16">
         <v>7</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="I2" s="2" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="I2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>1.3</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>1.3</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>1.3</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>1.3</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>1.3</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <v>1.3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>0.7</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>0.8</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>1.2</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="4">
         <v>0.6</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <v>0.8</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>0.8</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>0.8</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>0.8</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>0.8</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>0.8</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <f t="shared" ref="B6:G6" si="0">$B$2/(B4*B5)*B3</f>
         <v>11.375</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="5">
         <f t="shared" si="0"/>
         <v>16.250000000000004</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <f t="shared" si="0"/>
         <v>14.218749999999998</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <f t="shared" si="0"/>
         <v>9.4791666666666679</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="5">
         <f t="shared" si="0"/>
         <v>18.958333333333336</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="5">
         <f t="shared" si="0"/>
         <v>14.218749999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="9">
         <v>150472</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="J8" s="12" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="J8" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="9">
         <v>80000</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="J9" s="14" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="J9" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="9">
         <v>170000</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="9">
         <v>140</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="9">
         <v>120</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="9">
         <v>247</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="9">
         <v>6.67</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="14">
         <f>B18/3600</f>
         <v>15.674166666666666</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="14">
         <f>B8*1.5/4</f>
         <v>56427</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="14">
         <v>0.02</v>
       </c>
       <c r="I19">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="14">
         <f>B6+C6+D6+E6+F6+G6+B17+B19</f>
         <v>100.19416666666666</v>
       </c>
       <c r="G20" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="14">
         <f>B9/(22.8*8)</f>
         <v>438.59649122807014</v>
       </c>
       <c r="F21" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="1">
         <f>B22/B36*I19</f>
         <v>18.908486200575425</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="1">
         <f>B22/B22*I19</f>
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="14">
         <f>B21*B20</f>
         <v>43944.809941520463</v>
       </c>
       <c r="F22" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="1">
         <f>B23/B36*I19</f>
         <v>15.126788960460342</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="1">
         <f>B23/B22*I19</f>
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="14">
         <f>B22*0.8</f>
         <v>35155.847953216369</v>
       </c>
       <c r="F23" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="1">
         <f>B25/B36*I19</f>
         <v>10.2786530986328</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="1">
         <f>B25/B22*I19</f>
         <v>54.359999999999985</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="14">
         <f>B22+B23</f>
         <v>79100.657894736825</v>
       </c>
       <c r="F24" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="1">
         <f>B29/B36*I19</f>
         <v>0.92724307329744882</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="1">
         <f>B29/B22*I19</f>
         <v>4.9038461538461542</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="14">
         <f>B24*0.302</f>
         <v>23888.398684210519</v>
       </c>
       <c r="F25" t="s">
         <v>36</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="1">
         <f>B30/B36*I19</f>
         <v>0.28755269474387085</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="1">
         <f>B30/B22*I19</f>
         <v>1.5207599999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="14">
         <f>B10/4</f>
         <v>42500</v>
       </c>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="14">
         <f>B26/B13</f>
         <v>172.06477732793522</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="1">
         <f>B31/B36*I19</f>
         <v>26.471880680805594</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="1">
         <f>B31/B22*I19</f>
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="14">
         <f>B27/8</f>
         <v>21.508097165991902</v>
       </c>
       <c r="F28" t="s">
         <v>41</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="1">
         <f>B33/B36*I19</f>
         <v>72.000604708515468</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="1">
         <f>B33/B22*I19</f>
         <v>380.78460615384608</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="14">
         <f>B28*B20</f>
         <v>2154.9858721322535</v>
       </c>
       <c r="F29" t="s">
         <v>42</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="1">
         <f>B32/B36*I19</f>
         <v>18.908486200575428</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="1">
         <f>B32/B22*I19</f>
         <v>100.00000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="14">
         <f>B20*B14</f>
         <v>668.29509166666662</v>
       </c>
       <c r="F30" t="s">
         <v>43</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="1">
         <f>B34/B36*I19</f>
         <v>90.909090909090907</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="1">
         <f>B34/B22*I19</f>
         <v>480.78460615384608</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="14">
         <f>B22*B11/100</f>
         <v>61522.733918128644</v>
       </c>
       <c r="F31" t="s">
         <v>44</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="1">
         <f>B35/B36*I19</f>
         <v>9.0909090909090917</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="1">
         <f>B35/B22*I19</f>
         <v>48.078460615384614</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B32" s="14">
         <f>B22*100/100</f>
         <v>43944.809941520471</v>
       </c>
       <c r="F32" t="s">
         <v>45</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="1">
         <f>B36/B36*I19</f>
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="1">
         <f>B36/B22*I19</f>
         <v>528.86306676923084</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B33" s="14">
         <f>B22+B23+B25+B29+B30+B31</f>
         <v>167335.0714608749</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="16">
+      <c r="B34" s="14">
         <f>B33+B32</f>
         <v>211279.88140239537</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="14">
         <f>B34*B15/100</f>
         <v>21127.98814023954</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="14">
         <f>B34+B35</f>
         <v>232407.86954263493</v>
       </c>
@@ -1298,7 +1297,7 @@
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1311,7 +1310,7 @@
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
